--- a/训练集和测试集在不同参数下的Loss和Accuracy_原始数据.xlsx
+++ b/训练集和测试集在不同参数下的Loss和Accuracy_原始数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alien/Documents/d盘/python/本科毕设/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB178FA6-000F-4242-A0CD-9D5321870032}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B404DC21-E25B-0649-9F8E-A36A5D18F3BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" xr2:uid="{ACBD7E01-B0BE-5A43-9EF7-5C18D91E5918}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch_size=16                              Dropout rate=0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>epochs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   </si>
   <si>
     <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=16                              Dropout rate=0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,9 +121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +129,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F425A5E3-9E43-5D4A-BB66-BD198C8DE43F}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -460,398 +460,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>0.2</v>
       </c>
       <c r="B6">
         <v>5.45E-2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D6">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D7">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>0.4</v>
       </c>
       <c r="B8">
         <v>0.1062</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.92159999999999997</v>
       </c>
       <c r="D8">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>0.5</v>
       </c>
       <c r="B9">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18">
         <v>5.45E-2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D18">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>20</v>
       </c>
       <c r="B19">
         <v>2.69E-2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19">
         <v>0.10340000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>30</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>2.9210999999999999E-4</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>40</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2.5274E-4</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
         <v>1.1819000000000001E-4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>50</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1.1014E-5</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>1.1107000000000001E-5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31">
         <v>3.78E-2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>16</v>
       </c>
       <c r="B33">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.96079999999999999</v>
       </c>
       <c r="D33">
         <v>0.1573</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>0.84619999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.96079999999999999</v>
       </c>
       <c r="D34">
         <v>0.19109999999999999</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.84619999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A28:F29"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A13:F14"/>
     <mergeCell ref="A15:F16"/>
     <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A28:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
